--- a/Testing plan Dec-Jan.xlsx
+++ b/Testing plan Dec-Jan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="420" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>Participant</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>Note: PREFER DOUBLED-UP SCANS, WILL PROBABLY NEED TO DO NEW SUBJ TOO…</t>
+  </si>
+  <si>
+    <t>Runs on DAX</t>
+  </si>
+  <si>
+    <t>Noise?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Runs on FRANKLIN</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -522,16 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="15" width="9.1640625" customWidth="1"/>
     <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,7 +618,7 @@
         <v>360</v>
       </c>
       <c r="N2">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="O2">
         <v>360</v>
@@ -675,7 +697,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
@@ -683,296 +705,425 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="F5" s="1">
+        <f>F4/60</f>
+        <v>12.933333333333334</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:O5" si="1">G4/60</f>
+        <v>15.933333333333334</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>10.066666666666666</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>10.133333333333333</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G16" t="s">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H16" t="s">
         <v>8</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I16" t="s">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K16" t="s">
         <v>5</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L16" t="s">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M16" t="s">
         <v>6</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N16" t="s">
         <v>7</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O16" t="s">
         <v>13</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P16" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="1">
-        <f>SUM(L4,N4:O4)/60</f>
-        <v>99.6</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>120-P13</f>
-        <v>20.400000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="1">
-        <f>SUM(I4,J4,K4,L4,M4,N4)/60</f>
-        <v>104.43333333333334</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>120-P14</f>
-        <v>15.566666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="1">
-        <f>SUM(L4,N4)/60</f>
-        <v>34.6</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>120-P15</f>
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="1">
-        <f>SUM(F4,G4,H4,L4,N4)/60</f>
-        <v>73.533333333333331</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" ref="Q16:Q18" si="1">120-P16</f>
-        <v>46.466666666666669</v>
       </c>
     </row>
     <row r="17" spans="4:17">
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="1">
+        <f>SUM(L4,N4:O4)/60</f>
+        <v>101.1</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>120-P17</f>
+        <v>18.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17">
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1">
+        <f>SUM(I4,J4,K4,L4,M4,N4)/60</f>
+        <v>105.93333333333334</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>120-P18</f>
+        <v>14.066666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="1">
+        <f>SUM(L4,N4)/60</f>
+        <v>36.1</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>120-P19</f>
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17">
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="1">
+        <f>SUM(F4,G4,H4,L4,N4)/60</f>
+        <v>75.033333333333331</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q22" si="2">120-P20</f>
+        <v>44.966666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="1">
         <f>SUM(F4,G4,H4,I4,J4,K4,M4)/60</f>
         <v>108.76666666666667</v>
       </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
         <v>11.233333333333334</v>
       </c>
     </row>
-    <row r="18" spans="4:17">
-      <c r="D18">
+    <row r="22" spans="4:17">
+      <c r="D22">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="1">
         <f>SUM(F4,G4,H4,O4)/60</f>
         <v>103.93333333333334</v>
       </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="1">
+        <f t="shared" si="2"/>
         <v>16.066666666666663</v>
       </c>
     </row>

--- a/Testing plan Dec-Jan.xlsx
+++ b/Testing plan Dec-Jan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>Participant</t>
   </si>
@@ -141,7 +141,7 @@
     <t>Runs on FRANKLIN</t>
   </si>
   <si>
-    <t>n</t>
+    <t>not present</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -801,13 +801,19 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
       <c r="N7" t="s">
         <v>17</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -830,7 +836,19 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
